--- a/DateFormat.xlsx
+++ b/DateFormat.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="224">
   <si>
     <t>PLAYER_ID</t>
   </si>
   <si>
+    <t>SALES</t>
+  </si>
+  <si>
     <t>date0</t>
   </si>
   <si>
@@ -106,577 +109,577 @@
     <t>date14</t>
   </si>
   <si>
+    <t>09,21,15</t>
+  </si>
+  <si>
+    <t>date15</t>
+  </si>
+  <si>
+    <t>09,21,2015</t>
+  </si>
+  <si>
+    <t>date16</t>
+  </si>
+  <si>
+    <t>Sep,21,2015</t>
+  </si>
+  <si>
+    <t>date17</t>
+  </si>
+  <si>
+    <t>September,21,2015</t>
+  </si>
+  <si>
+    <t>date18</t>
+  </si>
+  <si>
+    <t>9,21,15</t>
+  </si>
+  <si>
+    <t>date19</t>
+  </si>
+  <si>
+    <t>9,21,2015</t>
+  </si>
+  <si>
+    <t>date20</t>
+  </si>
+  <si>
+    <t>date21</t>
+  </si>
+  <si>
+    <t>date22</t>
+  </si>
+  <si>
+    <t>21,09,15</t>
+  </si>
+  <si>
+    <t>date23</t>
+  </si>
+  <si>
+    <t>21,09,2015</t>
+  </si>
+  <si>
+    <t>date24</t>
+  </si>
+  <si>
+    <t>21,Sep,2015</t>
+  </si>
+  <si>
+    <t>date25</t>
+  </si>
+  <si>
+    <t>21,September,2015</t>
+  </si>
+  <si>
+    <t>date26</t>
+  </si>
+  <si>
+    <t>date27</t>
+  </si>
+  <si>
+    <t>date28</t>
+  </si>
+  <si>
+    <t>date29</t>
+  </si>
+  <si>
+    <t>date30</t>
+  </si>
+  <si>
+    <t>15,09,21</t>
+  </si>
+  <si>
+    <t>date31</t>
+  </si>
+  <si>
+    <t>2015,09,21</t>
+  </si>
+  <si>
+    <t>date32</t>
+  </si>
+  <si>
+    <t>2015,Sep,21</t>
+  </si>
+  <si>
+    <t>date33</t>
+  </si>
+  <si>
+    <t>2015,September,21</t>
+  </si>
+  <si>
+    <t>date34</t>
+  </si>
+  <si>
+    <t>date35</t>
+  </si>
+  <si>
+    <t>date36</t>
+  </si>
+  <si>
+    <t>date37</t>
+  </si>
+  <si>
+    <t>date38</t>
+  </si>
+  <si>
+    <t>09 21 15</t>
+  </si>
+  <si>
+    <t>date39</t>
+  </si>
+  <si>
+    <t>09 21 2015</t>
+  </si>
+  <si>
+    <t>date40</t>
+  </si>
+  <si>
+    <t>Sep 21 2015</t>
+  </si>
+  <si>
+    <t>date41</t>
+  </si>
+  <si>
+    <t>September 21 2015</t>
+  </si>
+  <si>
+    <t>date42</t>
+  </si>
+  <si>
+    <t>9 21 15</t>
+  </si>
+  <si>
+    <t>date43</t>
+  </si>
+  <si>
+    <t>9 21 2015</t>
+  </si>
+  <si>
+    <t>date44</t>
+  </si>
+  <si>
+    <t>date45</t>
+  </si>
+  <si>
+    <t>date46</t>
+  </si>
+  <si>
+    <t>21 09 15</t>
+  </si>
+  <si>
+    <t>date47</t>
+  </si>
+  <si>
+    <t>21 09 2015</t>
+  </si>
+  <si>
+    <t>date48</t>
+  </si>
+  <si>
+    <t>21 Sep 2015</t>
+  </si>
+  <si>
+    <t>date49</t>
+  </si>
+  <si>
+    <t>21 September 2015</t>
+  </si>
+  <si>
+    <t>date50</t>
+  </si>
+  <si>
+    <t>21 9 15</t>
+  </si>
+  <si>
+    <t>date51</t>
+  </si>
+  <si>
+    <t>21 9 2015</t>
+  </si>
+  <si>
+    <t>date52</t>
+  </si>
+  <si>
+    <t>date53</t>
+  </si>
+  <si>
+    <t>date54</t>
+  </si>
+  <si>
+    <t>15 09 21</t>
+  </si>
+  <si>
+    <t>date55</t>
+  </si>
+  <si>
+    <t>2015 09 21</t>
+  </si>
+  <si>
+    <t>date56</t>
+  </si>
+  <si>
+    <t>2015 Sep 21</t>
+  </si>
+  <si>
+    <t>date57</t>
+  </si>
+  <si>
+    <t>2015 September 21</t>
+  </si>
+  <si>
+    <t>date58</t>
+  </si>
+  <si>
+    <t>15 9 21</t>
+  </si>
+  <si>
+    <t>date59</t>
+  </si>
+  <si>
+    <t>2015 9 21</t>
+  </si>
+  <si>
+    <t>date60</t>
+  </si>
+  <si>
+    <t>date61</t>
+  </si>
+  <si>
+    <t>date62</t>
+  </si>
+  <si>
+    <t>09-21-15</t>
+  </si>
+  <si>
+    <t>date63</t>
+  </si>
+  <si>
+    <t>09-21-2015</t>
+  </si>
+  <si>
+    <t>date64</t>
+  </si>
+  <si>
+    <t>Sep-21-2015</t>
+  </si>
+  <si>
+    <t>date65</t>
+  </si>
+  <si>
+    <t>September-21-2015</t>
+  </si>
+  <si>
+    <t>date66</t>
+  </si>
+  <si>
+    <t>9-21-15</t>
+  </si>
+  <si>
+    <t>date67</t>
+  </si>
+  <si>
+    <t>9-21-2015</t>
+  </si>
+  <si>
+    <t>date68</t>
+  </si>
+  <si>
+    <t>date69</t>
+  </si>
+  <si>
+    <t>date70</t>
+  </si>
+  <si>
+    <t>21-09-15</t>
+  </si>
+  <si>
+    <t>date71</t>
+  </si>
+  <si>
+    <t>21-09-2015</t>
+  </si>
+  <si>
+    <t>date72</t>
+  </si>
+  <si>
+    <t>21-Sep-2015</t>
+  </si>
+  <si>
+    <t>date73</t>
+  </si>
+  <si>
+    <t>21-September-2015</t>
+  </si>
+  <si>
+    <t>date74</t>
+  </si>
+  <si>
+    <t>date75</t>
+  </si>
+  <si>
+    <t>date76</t>
+  </si>
+  <si>
+    <t>date77</t>
+  </si>
+  <si>
+    <t>date78</t>
+  </si>
+  <si>
+    <t>15-09-21</t>
+  </si>
+  <si>
+    <t>date79</t>
+  </si>
+  <si>
+    <t>2015-09-21</t>
+  </si>
+  <si>
+    <t>date80</t>
+  </si>
+  <si>
+    <t>2015-Sep-21</t>
+  </si>
+  <si>
+    <t>date81</t>
+  </si>
+  <si>
+    <t>2015-September-21</t>
+  </si>
+  <si>
+    <t>date82</t>
+  </si>
+  <si>
+    <t>date83</t>
+  </si>
+  <si>
+    <t>date84</t>
+  </si>
+  <si>
+    <t>date85</t>
+  </si>
+  <si>
+    <t>date86</t>
+  </si>
+  <si>
+    <t>09.21.15</t>
+  </si>
+  <si>
+    <t>date87</t>
+  </si>
+  <si>
+    <t>09.21.2015</t>
+  </si>
+  <si>
+    <t>date88</t>
+  </si>
+  <si>
+    <t>Sep.21.2015</t>
+  </si>
+  <si>
+    <t>date89</t>
+  </si>
+  <si>
+    <t>September.21.2015</t>
+  </si>
+  <si>
+    <t>date90</t>
+  </si>
+  <si>
+    <t>9.21.15</t>
+  </si>
+  <si>
+    <t>date91</t>
+  </si>
+  <si>
+    <t>9.21.2015</t>
+  </si>
+  <si>
+    <t>date92</t>
+  </si>
+  <si>
+    <t>date93</t>
+  </si>
+  <si>
+    <t>date94</t>
+  </si>
+  <si>
+    <t>21.09.15</t>
+  </si>
+  <si>
+    <t>date95</t>
+  </si>
+  <si>
+    <t>21.09.2015</t>
+  </si>
+  <si>
+    <t>date96</t>
+  </si>
+  <si>
+    <t>21.Sep.2015</t>
+  </si>
+  <si>
+    <t>date97</t>
+  </si>
+  <si>
+    <t>21.September.2015</t>
+  </si>
+  <si>
+    <t>date98</t>
+  </si>
+  <si>
+    <t>date99</t>
+  </si>
+  <si>
+    <t>date100</t>
+  </si>
+  <si>
+    <t>date101</t>
+  </si>
+  <si>
+    <t>date102</t>
+  </si>
+  <si>
+    <t>15.09.21</t>
+  </si>
+  <si>
+    <t>date103</t>
+  </si>
+  <si>
+    <t>2015.09.21</t>
+  </si>
+  <si>
+    <t>date104</t>
+  </si>
+  <si>
+    <t>2015.Sep.21</t>
+  </si>
+  <si>
+    <t>date105</t>
+  </si>
+  <si>
+    <t>2015.September.21</t>
+  </si>
+  <si>
+    <t>date106</t>
+  </si>
+  <si>
+    <t>date107</t>
+  </si>
+  <si>
+    <t>date108</t>
+  </si>
+  <si>
+    <t>date109</t>
+  </si>
+  <si>
+    <t>date110</t>
+  </si>
+  <si>
     <t>09/21/15</t>
   </si>
   <si>
-    <t>date15</t>
+    <t>date111</t>
   </si>
   <si>
     <t>09/21/2015</t>
   </si>
   <si>
-    <t>date16</t>
+    <t>date112</t>
   </si>
   <si>
     <t>Sep/21/2015</t>
   </si>
   <si>
-    <t>date17</t>
+    <t>date113</t>
   </si>
   <si>
     <t>September/21/2015</t>
   </si>
   <si>
-    <t>date18</t>
+    <t>date114</t>
   </si>
   <si>
     <t>9/21/15</t>
   </si>
   <si>
-    <t>date19</t>
+    <t>date115</t>
   </si>
   <si>
     <t>9/21/2015</t>
   </si>
   <si>
-    <t>date20</t>
-  </si>
-  <si>
-    <t>date21</t>
-  </si>
-  <si>
-    <t>date22</t>
+    <t>date116</t>
+  </si>
+  <si>
+    <t>date117</t>
+  </si>
+  <si>
+    <t>date118</t>
   </si>
   <si>
     <t>21/09/15</t>
   </si>
   <si>
-    <t>date23</t>
+    <t>date119</t>
   </si>
   <si>
     <t>21/09/2015</t>
   </si>
   <si>
-    <t>date24</t>
+    <t>date120</t>
   </si>
   <si>
     <t>21/Sep/2015</t>
   </si>
   <si>
-    <t>date25</t>
+    <t>date121</t>
   </si>
   <si>
     <t>21/September/2015</t>
   </si>
   <si>
-    <t>date26</t>
-  </si>
-  <si>
-    <t>date27</t>
-  </si>
-  <si>
-    <t>date28</t>
-  </si>
-  <si>
-    <t>date29</t>
-  </si>
-  <si>
-    <t>date30</t>
+    <t>date122</t>
+  </si>
+  <si>
+    <t>date123</t>
+  </si>
+  <si>
+    <t>date124</t>
+  </si>
+  <si>
+    <t>date125</t>
+  </si>
+  <si>
+    <t>date126</t>
   </si>
   <si>
     <t>15/09/21</t>
   </si>
   <si>
-    <t>date31</t>
+    <t>date127</t>
   </si>
   <si>
     <t>2015/09/21</t>
   </si>
   <si>
-    <t>date32</t>
+    <t>date128</t>
   </si>
   <si>
     <t>2015/Sep/21</t>
   </si>
   <si>
-    <t>date33</t>
+    <t>date129</t>
   </si>
   <si>
     <t>2015/September/21</t>
   </si>
   <si>
-    <t>date34</t>
-  </si>
-  <si>
-    <t>date35</t>
-  </si>
-  <si>
-    <t>date36</t>
-  </si>
-  <si>
-    <t>date37</t>
-  </si>
-  <si>
-    <t>date38</t>
-  </si>
-  <si>
-    <t>09,21,15</t>
-  </si>
-  <si>
-    <t>date39</t>
-  </si>
-  <si>
-    <t>09,21,2015</t>
-  </si>
-  <si>
-    <t>date40</t>
-  </si>
-  <si>
-    <t>Sep,21,2015</t>
-  </si>
-  <si>
-    <t>date41</t>
-  </si>
-  <si>
-    <t>September,21,2015</t>
-  </si>
-  <si>
-    <t>date42</t>
-  </si>
-  <si>
-    <t>9,21,15</t>
-  </si>
-  <si>
-    <t>date43</t>
-  </si>
-  <si>
-    <t>9,21,2015</t>
-  </si>
-  <si>
-    <t>date44</t>
-  </si>
-  <si>
-    <t>date45</t>
-  </si>
-  <si>
-    <t>date46</t>
-  </si>
-  <si>
-    <t>21,09,15</t>
-  </si>
-  <si>
-    <t>date47</t>
-  </si>
-  <si>
-    <t>21,09,2015</t>
-  </si>
-  <si>
-    <t>date48</t>
-  </si>
-  <si>
-    <t>21,Sep,2015</t>
-  </si>
-  <si>
-    <t>date49</t>
-  </si>
-  <si>
-    <t>21,September,2015</t>
-  </si>
-  <si>
-    <t>date50</t>
-  </si>
-  <si>
-    <t>date51</t>
-  </si>
-  <si>
-    <t>date52</t>
-  </si>
-  <si>
-    <t>date53</t>
-  </si>
-  <si>
-    <t>date54</t>
-  </si>
-  <si>
-    <t>15,09,21</t>
-  </si>
-  <si>
-    <t>date55</t>
-  </si>
-  <si>
-    <t>2015,09,21</t>
-  </si>
-  <si>
-    <t>date56</t>
-  </si>
-  <si>
-    <t>2015,Sep,21</t>
-  </si>
-  <si>
-    <t>date57</t>
-  </si>
-  <si>
-    <t>2015,September,21</t>
-  </si>
-  <si>
-    <t>date58</t>
-  </si>
-  <si>
-    <t>date59</t>
-  </si>
-  <si>
-    <t>date60</t>
-  </si>
-  <si>
-    <t>date61</t>
-  </si>
-  <si>
-    <t>date62</t>
-  </si>
-  <si>
-    <t>09.21.15</t>
-  </si>
-  <si>
-    <t>date63</t>
-  </si>
-  <si>
-    <t>09.21.2015</t>
-  </si>
-  <si>
-    <t>date64</t>
-  </si>
-  <si>
-    <t>Sep.21.2015</t>
-  </si>
-  <si>
-    <t>date65</t>
-  </si>
-  <si>
-    <t>September.21.2015</t>
-  </si>
-  <si>
-    <t>date66</t>
-  </si>
-  <si>
-    <t>9.21.15</t>
-  </si>
-  <si>
-    <t>date67</t>
-  </si>
-  <si>
-    <t>9.21.2015</t>
-  </si>
-  <si>
-    <t>date68</t>
-  </si>
-  <si>
-    <t>date69</t>
-  </si>
-  <si>
-    <t>date70</t>
-  </si>
-  <si>
-    <t>21.09.15</t>
-  </si>
-  <si>
-    <t>date71</t>
-  </si>
-  <si>
-    <t>21.09.2015</t>
-  </si>
-  <si>
-    <t>date72</t>
-  </si>
-  <si>
-    <t>21.Sep.2015</t>
-  </si>
-  <si>
-    <t>date73</t>
-  </si>
-  <si>
-    <t>21.September.2015</t>
-  </si>
-  <si>
-    <t>date74</t>
-  </si>
-  <si>
-    <t>date75</t>
-  </si>
-  <si>
-    <t>date76</t>
-  </si>
-  <si>
-    <t>date77</t>
-  </si>
-  <si>
-    <t>date78</t>
-  </si>
-  <si>
-    <t>15.09.21</t>
-  </si>
-  <si>
-    <t>date79</t>
-  </si>
-  <si>
-    <t>2015.09.21</t>
-  </si>
-  <si>
-    <t>date80</t>
-  </si>
-  <si>
-    <t>2015.Sep.21</t>
-  </si>
-  <si>
-    <t>date81</t>
-  </si>
-  <si>
-    <t>2015.September.21</t>
-  </si>
-  <si>
-    <t>date82</t>
-  </si>
-  <si>
-    <t>date83</t>
-  </si>
-  <si>
-    <t>date84</t>
-  </si>
-  <si>
-    <t>date85</t>
-  </si>
-  <si>
-    <t>date86</t>
-  </si>
-  <si>
-    <t>09-21-15</t>
-  </si>
-  <si>
-    <t>date87</t>
-  </si>
-  <si>
-    <t>09-21-2015</t>
-  </si>
-  <si>
-    <t>date88</t>
-  </si>
-  <si>
-    <t>Sep-21-2015</t>
-  </si>
-  <si>
-    <t>date89</t>
-  </si>
-  <si>
-    <t>September-21-2015</t>
-  </si>
-  <si>
-    <t>date90</t>
-  </si>
-  <si>
-    <t>9-21-15</t>
-  </si>
-  <si>
-    <t>date91</t>
-  </si>
-  <si>
-    <t>9-21-2015</t>
-  </si>
-  <si>
-    <t>date92</t>
-  </si>
-  <si>
-    <t>date93</t>
-  </si>
-  <si>
-    <t>date94</t>
-  </si>
-  <si>
-    <t>21-09-15</t>
-  </si>
-  <si>
-    <t>date95</t>
-  </si>
-  <si>
-    <t>21-09-2015</t>
-  </si>
-  <si>
-    <t>date96</t>
-  </si>
-  <si>
-    <t>21-Sep-2015</t>
-  </si>
-  <si>
-    <t>date97</t>
-  </si>
-  <si>
-    <t>21-September-2015</t>
-  </si>
-  <si>
-    <t>date98</t>
-  </si>
-  <si>
-    <t>date99</t>
-  </si>
-  <si>
-    <t>date100</t>
-  </si>
-  <si>
-    <t>date101</t>
-  </si>
-  <si>
-    <t>date102</t>
-  </si>
-  <si>
-    <t>15-09-21</t>
-  </si>
-  <si>
-    <t>date103</t>
-  </si>
-  <si>
-    <t>2015-09-21</t>
-  </si>
-  <si>
-    <t>date104</t>
-  </si>
-  <si>
-    <t>2015-Sep-21</t>
-  </si>
-  <si>
-    <t>date105</t>
-  </si>
-  <si>
-    <t>2015-September-21</t>
-  </si>
-  <si>
-    <t>date106</t>
-  </si>
-  <si>
-    <t>date107</t>
-  </si>
-  <si>
-    <t>date108</t>
-  </si>
-  <si>
-    <t>date109</t>
-  </si>
-  <si>
-    <t>date110</t>
-  </si>
-  <si>
-    <t>09 21 15</t>
-  </si>
-  <si>
-    <t>date111</t>
-  </si>
-  <si>
-    <t>09 21 2015</t>
-  </si>
-  <si>
-    <t>date112</t>
-  </si>
-  <si>
-    <t>Sep 21 2015</t>
-  </si>
-  <si>
-    <t>date113</t>
-  </si>
-  <si>
-    <t>September 21 2015</t>
-  </si>
-  <si>
-    <t>date114</t>
-  </si>
-  <si>
-    <t>9 21 15</t>
-  </si>
-  <si>
-    <t>date115</t>
-  </si>
-  <si>
-    <t>9 21 2015</t>
-  </si>
-  <si>
-    <t>date116</t>
-  </si>
-  <si>
-    <t>date117</t>
-  </si>
-  <si>
-    <t>date118</t>
-  </si>
-  <si>
-    <t>21 09 15</t>
-  </si>
-  <si>
-    <t>date119</t>
-  </si>
-  <si>
-    <t>21 09 2015</t>
-  </si>
-  <si>
-    <t>date120</t>
-  </si>
-  <si>
-    <t>21 Sep 2015</t>
-  </si>
-  <si>
-    <t>date121</t>
-  </si>
-  <si>
-    <t>21 September 2015</t>
-  </si>
-  <si>
-    <t>date122</t>
-  </si>
-  <si>
-    <t>21 9 15</t>
-  </si>
-  <si>
-    <t>date123</t>
-  </si>
-  <si>
-    <t>21 9 2015</t>
-  </si>
-  <si>
-    <t>date124</t>
-  </si>
-  <si>
-    <t>date125</t>
-  </si>
-  <si>
-    <t>date126</t>
-  </si>
-  <si>
-    <t>15 09 21</t>
-  </si>
-  <si>
-    <t>date127</t>
-  </si>
-  <si>
-    <t>2015 09 21</t>
-  </si>
-  <si>
-    <t>date128</t>
-  </si>
-  <si>
-    <t>2015 Sep 21</t>
-  </si>
-  <si>
-    <t>date129</t>
-  </si>
-  <si>
-    <t>2015 September 21</t>
-  </si>
-  <si>
     <t>date130</t>
   </si>
   <si>
-    <t>15 9 21</t>
-  </si>
-  <si>
     <t>date131</t>
-  </si>
-  <si>
-    <t>2015 9 21</t>
   </si>
   <si>
     <t>date132</t>
@@ -1022,810 +1025,810 @@
   <sheetData>
     <row r="1" spans="1:134">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AP1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AQ1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AR1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AW1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AX1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AY1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BA1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="BB1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="BC1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="BD1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="BE1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BF1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BG1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BH1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BI1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="BJ1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="BK1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="BL1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="BM1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="BN1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="BO1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="BP1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BQ1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="BR1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BS1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="BT1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BU1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="BV1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BW1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BX1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="BY1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="CA1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="CB1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="CC1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="CD1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="CE1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="CF1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="CG1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="CH1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="CI1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="CJ1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="CK1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="CL1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="CM1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="CN1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="CO1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="CP1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="CQ1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="CR1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="CS1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="CT1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="CU1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="CV1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CW1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="CX1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="CY1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="CZ1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="DA1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="DB1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="DC1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="DD1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="DE1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="DF1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="DG1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="DH1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="DI1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="DJ1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="DK1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="DL1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="DM1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="DN1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="DO1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="DP1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="DQ1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="DR1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="DS1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="DT1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="DU1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="DV1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DW1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DX1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="DY1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DZ1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="EA1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="EB1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="EC1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="ED1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:134">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AO2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AR2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AU2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AV2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AX2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AZ2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BA2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BC2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BD2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BE2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BF2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BG2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="BH2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="BI2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BJ2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BK2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="BL2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BM2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="BN2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BO2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BP2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="BQ2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="BR2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BS2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BT2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="BU2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="BV2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BW2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BX2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="BY2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="BZ2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="CA2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CB2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="CC2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="CD2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="CE2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="CF2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="CG2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="CH2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="CI2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="CJ2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="CK2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="CL2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="CM2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="CN2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="CO2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="CP2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="CQ2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="CR2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="CS2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="CT2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CU2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="CV2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="CW2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="CX2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CY2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CZ2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="DA2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="DB2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="DC2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="DD2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="DE2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="DF2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="DG2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="DH2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="DI2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="DJ2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="DK2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="DL2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="DM2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="DN2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="DO2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="DP2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="DQ2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DR2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="DS2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="DT2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="DU2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="DV2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="DW2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="DX2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="DY2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DZ2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="EA2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="EB2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="EC2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="ED2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
